--- a/Business_Report.xlsx
+++ b/Business_Report.xlsx
@@ -1,23 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brsah\OneDrive\Desktop\Projects\BI_Mini_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEAE4E8-2578-4959-B3DA-787280AB5B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clean_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="KPI_Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Monthly_Revenue" sheetId="3" r:id="rId3"/>
-    <sheet name="Category_Revenue" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="Clean_Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="5" r:id="rId4"/>
+    <sheet name="KPI_Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="Monthly_Revenue" sheetId="3" r:id="rId6"/>
+    <sheet name="Category_Revenue" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId8"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>order_id</t>
   </si>
@@ -81,15 +104,29 @@
   <si>
     <t>Average Order Value</t>
   </si>
+  <si>
+    <t>Avg Order Value</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of revenue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +142,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,25 +224,3840 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Business_Report.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> by Category</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-761B-4E20-BF5E-E2C3E5AC8002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1116577072"/>
+        <c:axId val="1116575152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1116577072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116575152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116575152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116577072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Business_Report.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Monthly Revenue Trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86BE-4647-91F3-14EEFD861284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1553746864"/>
+        <c:axId val="1553744464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1553746864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553744464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553744464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553746864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Business_Report.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> by Category</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25753993943365744"/>
+          <c:y val="0.11998546206892778"/>
+          <c:w val="0.68641829190281944"/>
+          <c:h val="0.75954777599009304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1681-4C58-BF4B-7BC7165984C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1116577072"/>
+        <c:axId val="1116575152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1116577072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Category</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116575152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116575152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116577072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281946</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B72FD1-116D-7014-8590-A39CC9B84CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>221118</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147484</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8D7D17-8CBB-4FF5-AF14-AA1F0E39C68A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169654</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>368710</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>49162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360DC13B-4506-483E-9502-C77F1A5F3CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CD3D50-7CC7-70FC-88DD-9831DD2A2DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313765" y="1150469"/>
+          <a:ext cx="5020235" cy="1210237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>Key Insights:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>• Technology category contributes the highest revenue</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>• Revenue shows an upward trend from Jan to Feb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>• Bangalore and Mumbai are major contributing cities</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="sahithi reddy" refreshedDate="46007.695573495374" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{A6A0ECB0-BCCF-4B2C-97B7-92D84A569C68}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G10" sheet="Clean_Data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="order_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1009"/>
+    </cacheField>
+    <cacheField name="order_date" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-02-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="city" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="category" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Office"/>
+        <s v="Furniture"/>
+        <s v="Technology"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12000" maxValue="30000"/>
+    </cacheField>
+    <cacheField name="quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="month" numFmtId="0">
+      <sharedItems count="2">
+        <s v="2024-01"/>
+        <s v="2024-02"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <n v="1001"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Bangalore"/>
+    <x v="0"/>
+    <n v="12000"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Mumbai"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Delhi"/>
+    <x v="1"/>
+    <n v="22000"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Bangalore"/>
+    <x v="2"/>
+    <n v="18000"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Chennai"/>
+    <x v="0"/>
+    <n v="20000"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Delhi"/>
+    <x v="2"/>
+    <n v="30000"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <d v="2024-02-01T00:00:00"/>
+    <s v="Mumbai"/>
+    <x v="1"/>
+    <n v="25000"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <d v="2024-02-03T00:00:00"/>
+    <s v="Bangalore"/>
+    <x v="0"/>
+    <n v="14000"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <d v="2024-02-05T00:00:00"/>
+    <s v="Chennai"/>
+    <x v="2"/>
+    <n v="27000"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D3C00C5-522F-4DFA-A6A5-7C11D024E367}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86338B89-C09F-4067-AC39-26B7CD3508D8}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +4095,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -231,6 +4129,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,9 +4164,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,241 +4340,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F9060F-1B8F-42CD-9F6F-2BE5AB68809F}">
+  <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="6">
+        <v>117000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45297</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>15000</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>66000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45297</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>22000</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>18000</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45301</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>20000</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>30000</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45323</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>25000</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45325</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>14000</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45327</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>27000</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6">
+        <v>183000</v>
       </c>
     </row>
   </sheetData>
@@ -683,12 +4391,393 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3739E267-E722-4E8A-940B-FB54FAD8D7D0}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>183000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>12000</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>15000</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>22000</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>18000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>30000</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>25000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>14000</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>27000</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4AB75B-F338-4B93-A994-F5D2B3DB8052}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="31" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="49.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="7">
+        <f>SUM(Clean_Data!E:E)</f>
+        <v>183000</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="17">
+        <f>COUNTA(Clean_Data!A:A)-1</f>
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <f>AVERAGE(Clean_Data!E:E)</f>
+        <v>20333.333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="21">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -719,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>20333.33333333333</v>
+        <v>20333.333333333328</v>
       </c>
     </row>
   </sheetData>
@@ -727,13 +4816,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -764,13 +4853,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
